--- a/AC/bp4/ejer4/grafica.xlsx
+++ b/AC/bp4/ejer4/grafica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pingu\2Info-C2\AC\bp4\ejer4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32CBDC3-2FBA-4EBC-A7A5-4F937DC0201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD254BF5-FF8A-4BE8-83CE-7029C8260C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{03E92FB4-74F3-4263-A061-559B7F1F7317}"/>
+    <workbookView xWindow="3600" yWindow="975" windowWidth="28800" windowHeight="15435" xr2:uid="{03E92FB4-74F3-4263-A061-559B7F1F7317}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,6 +93,1054 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ganancia según tamaño</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ganancia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$F$6:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$6:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18.022165449768476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.398250679015966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32B0-433F-99CF-AD3D4857425E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="428087487"/>
+        <c:axId val="428086239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428087487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428086239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428086239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428087487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1497E65-F3A5-4472-BC92-A0A26D36F40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,7 +1443,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,5 +1521,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AC/bp4/ejer4/grafica.xlsx
+++ b/AC/bp4/ejer4/grafica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pingu\2Info-C2\AC\bp4\ejer4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD254BF5-FF8A-4BE8-83CE-7029C8260C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9547CC-DDA7-473E-B58F-F20EA9FA0ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="975" windowWidth="28800" windowHeight="15435" xr2:uid="{03E92FB4-74F3-4263-A061-559B7F1F7317}"/>
   </bookViews>
@@ -43,8 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,13 +216,13 @@
             <c:numRef>
               <c:f>Hoja1!$G$6:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18.022165449768476</c:v>
+                  <c:v>3.0218068309755486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.398250679015966</c:v>
+                  <c:v>5.865619336994409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,7 +387,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1443,7 +1445,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,11 +1465,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8.6909550000000007</v>
+      <c r="B2" s="2">
+        <v>8.7445590000000006</v>
       </c>
       <c r="C2">
-        <v>41.756850999999997</v>
+        <v>38.304383000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1475,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.48223700000000003</v>
+        <v>2.893818</v>
       </c>
       <c r="C3">
-        <v>2.0470799999999998</v>
+        <v>6.530322</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1487,11 +1489,11 @@
       </c>
       <c r="B4" s="1">
         <f>B2/B3</f>
-        <v>18.022165449768476</v>
+        <v>3.0218068309755486</v>
       </c>
       <c r="C4" s="1">
         <f>C2/C3</f>
-        <v>20.398250679015966</v>
+        <v>5.865619336994409</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,16 +1508,18 @@
       <c r="F6">
         <v>1000</v>
       </c>
-      <c r="G6">
-        <v>18.022165449768476</v>
+      <c r="G6" s="1">
+        <f>B4</f>
+        <v>3.0218068309755486</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>2000</v>
       </c>
-      <c r="G7">
-        <v>20.398250679015966</v>
+      <c r="G7" s="1">
+        <f>C4</f>
+        <v>5.865619336994409</v>
       </c>
     </row>
   </sheetData>
